--- a/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6017</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2511</v>
+        <v>2310</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13771</v>
+        <v>13228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01104519199536325</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00460981732044982</v>
+        <v>0.004239958725477441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02528139060851378</v>
+        <v>0.02428429576843171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>4453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2063</v>
+        <v>1975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9173</v>
+        <v>9020</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009206470480066573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00426519932559984</v>
+        <v>0.004084098006341057</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01896425141310467</v>
+        <v>0.01864782176584216</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>10470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5696</v>
+        <v>5850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17840</v>
+        <v>18371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01018038160426513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005538500949462567</v>
+        <v>0.005687884983292734</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01734663591462287</v>
+        <v>0.01786352226826258</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1124</v>
+        <v>1190</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10468</v>
+        <v>10441</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.008277001138264753</v>
+        <v>0.008277001138264751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00206422220202335</v>
+        <v>0.002184565109214388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01921664468475482</v>
+        <v>0.01916708598550382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,16 +836,16 @@
         <v>646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10097</v>
+        <v>9685</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.007079281946883096</v>
+        <v>0.007079281946883095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001335025818411939</v>
+        <v>0.00133623800034524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02087411848538262</v>
+        <v>0.02002267611212359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>7933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3851</v>
+        <v>3574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16815</v>
+        <v>16550</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.007713674939214229</v>
+        <v>0.00771367493921423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003744240893447605</v>
+        <v>0.003475473980022704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01635024771365364</v>
+        <v>0.01609271301222026</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>522126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>508761</v>
+        <v>511953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>530338</v>
+        <v>530860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.958513773152918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9339780075608509</v>
+        <v>0.9398372464556712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9735881016358273</v>
+        <v>0.9745461817504134</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>658</v>
@@ -904,19 +904,19 @@
         <v>469926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>462561</v>
+        <v>462006</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>475141</v>
+        <v>475001</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9715186148465533</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9562913509948304</v>
+        <v>0.9551437482594767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9822999971403932</v>
+        <v>0.9820087087061453</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1184</v>
@@ -925,19 +925,19 @@
         <v>992053</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>979258</v>
+        <v>979848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1001300</v>
+        <v>1001689</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9646303721798387</v>
+        <v>0.9646303721798388</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9521889952856262</v>
+        <v>0.9527628980999471</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9736214184487155</v>
+        <v>0.9739997118287118</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>7410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3291</v>
+        <v>2676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18069</v>
+        <v>16179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0136040745947648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006041157402247965</v>
+        <v>0.004912979953841854</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03317130434732964</v>
+        <v>0.02970171063093451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,16 +978,16 @@
         <v>458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5489</v>
+        <v>5180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004138910216852839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0009472930546998815</v>
+        <v>0.0009476045468023958</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01134749907233532</v>
+        <v>0.01070923899950564</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -996,19 +996,19 @@
         <v>9412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5030</v>
+        <v>4708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19205</v>
+        <v>18349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009152300664143602</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00489081104222623</v>
+        <v>0.004577378143168663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0186741354833852</v>
+        <v>0.01784145682369439</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>4663</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1884</v>
+        <v>1687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9863</v>
+        <v>9793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008559959118689222</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003459486649982294</v>
+        <v>0.003097563061423847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01810720021223359</v>
+        <v>0.01797861495347061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>3897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1689</v>
+        <v>1615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8884</v>
+        <v>8583</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.008056722509644084</v>
+        <v>0.008056722509644083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003490916530517113</v>
+        <v>0.003339423154122597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01836595181818112</v>
+        <v>0.01774333231442723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>8560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4704</v>
+        <v>4349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15566</v>
+        <v>14460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008323270612538253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004574026408321619</v>
+        <v>0.004228913998998171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0151355338759468</v>
+        <v>0.0140600718107363</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>5594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1817</v>
+        <v>2137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12417</v>
+        <v>12050</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01166968822679431</v>
+        <v>0.01166968822679432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00379097817695902</v>
+        <v>0.004457831057972736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02590622359624062</v>
+        <v>0.025138695771334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1192,19 +1192,19 @@
         <v>5220</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2203</v>
+        <v>2161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10578</v>
+        <v>10625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01243317170039836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005246540674428542</v>
+        <v>0.005146107810363922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02519275992398708</v>
+        <v>0.02530505164709818</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1213,19 +1213,19 @@
         <v>10814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5894</v>
+        <v>6086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18143</v>
+        <v>18067</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01202618939308534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006554499706089357</v>
+        <v>0.006768145053182602</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02017691818671666</v>
+        <v>0.02009269240045601</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9450</v>
+        <v>10601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005765461921569888</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01971438835823843</v>
+        <v>0.02211692254922955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>4606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1743</v>
+        <v>1706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9916</v>
+        <v>9748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01097123167142816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004151397354558772</v>
+        <v>0.00406285144057558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0236174047886423</v>
+        <v>0.02321768840924194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>7370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3442</v>
+        <v>3381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14918</v>
+        <v>15766</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008196245365390022</v>
+        <v>0.008196245365390023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003827708492330626</v>
+        <v>0.003759836163009026</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01659054770251886</v>
+        <v>0.01753392902375332</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>464456</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>455873</v>
+        <v>454592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>470984</v>
+        <v>470596</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9689870497601206</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9510804918904541</v>
+        <v>0.9484080572370697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9826058845637323</v>
+        <v>0.9817968082318588</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>562</v>
@@ -1334,19 +1334,19 @@
         <v>402133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>393138</v>
+        <v>393232</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>408469</v>
+        <v>408551</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9577627685095047</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9363402971544141</v>
+        <v>0.9365633430099126</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.972854440037229</v>
+        <v>0.9730482819214116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1022</v>
@@ -1355,19 +1355,19 @@
         <v>866589</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>854990</v>
+        <v>854997</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>876505</v>
+        <v>876334</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.963745981033729</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9508464355312013</v>
+        <v>0.9508542998277716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9747743233635593</v>
+        <v>0.9745841071729501</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>4552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10727</v>
+        <v>10962</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.009496958403953806</v>
+        <v>0.009496958403953808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002778698002357356</v>
+        <v>0.002755661053836097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02237887668118809</v>
+        <v>0.02286953395439431</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1405,19 +1405,19 @@
         <v>4004</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>748</v>
+        <v>1391</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11124</v>
+        <v>11311</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009536266399141756</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001780496284400309</v>
+        <v>0.0033127268164692</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02649315892909684</v>
+        <v>0.02694037325857853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1426,19 +1426,19 @@
         <v>8556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4143</v>
+        <v>3744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16797</v>
+        <v>16154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009515312889169991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004607556512419093</v>
+        <v>0.004163218308272933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01868073284125059</v>
+        <v>0.01796498128114681</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>1956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470</v>
+        <v>579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6277</v>
+        <v>6891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004080841687561435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009805405103014506</v>
+        <v>0.001208511321043641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01309599161066748</v>
+        <v>0.01437619821929521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1476,19 +1476,19 @@
         <v>3903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9218</v>
+        <v>9509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009296561719527034</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003103865104869532</v>
+        <v>0.003140171365348593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02195547231096335</v>
+        <v>0.02264854384599541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1497,19 +1497,19 @@
         <v>5859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2708</v>
+        <v>2525</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11196</v>
+        <v>11848</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006516271318625727</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003011334851691497</v>
+        <v>0.002808431207130262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01245131985049406</v>
+        <v>0.01317667024266874</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>8393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3685</v>
+        <v>4291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16060</v>
+        <v>17055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0181721138479002</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007977662770179009</v>
+        <v>0.009291738582315317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0347732057896536</v>
+        <v>0.03692690709678043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1622,19 +1622,19 @@
         <v>2642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6445</v>
+        <v>6742</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01420565388559467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003846377791185197</v>
+        <v>0.00383044850078848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03465335033608016</v>
+        <v>0.03625450171554043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1643,19 +1643,19 @@
         <v>11035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6049</v>
+        <v>5521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18848</v>
+        <v>18532</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01703346840768786</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009337782894734525</v>
+        <v>0.008522318918086469</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0290936610662972</v>
+        <v>0.02860669063338686</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>1970</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343</v>
+        <v>673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6034</v>
+        <v>5909</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004265379544951377</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0007421480961186917</v>
+        <v>0.001456899717619466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01306552211833581</v>
+        <v>0.01279363136786655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4473</v>
+        <v>4692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006981692033927752</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02405265946554905</v>
+        <v>0.02522722260136516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1714,19 +1714,19 @@
         <v>3268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1059</v>
+        <v>1013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8066</v>
+        <v>7811</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.005045147110780284</v>
+        <v>0.005045147110780283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001635393208048627</v>
+        <v>0.0015640888936724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01245084565054466</v>
+        <v>0.01205645166974171</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>428453</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>415649</v>
+        <v>416077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>437264</v>
+        <v>437465</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9276722655379132</v>
+        <v>0.9276722655379134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8999503169449394</v>
+        <v>0.9008763974274233</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9467499887707013</v>
+        <v>0.9471854949663457</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>263</v>
@@ -1764,19 +1764,19 @@
         <v>172312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>165726</v>
+        <v>165503</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177073</v>
+        <v>176984</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9265507256643116</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8911370365179132</v>
+        <v>0.889938173769912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9521564334135001</v>
+        <v>0.9516746826154898</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>703</v>
@@ -1785,19 +1785,19 @@
         <v>600764</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>587185</v>
+        <v>587142</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>611746</v>
+        <v>611620</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9273503068454699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9063887339459188</v>
+        <v>0.9063221390141235</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9443011781189734</v>
+        <v>0.9441064504539304</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>17669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10635</v>
+        <v>11281</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25928</v>
+        <v>26787</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03825627731877136</v>
+        <v>0.03825627731877135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02302587030983433</v>
+        <v>0.02442489755223973</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05613885868749392</v>
+        <v>0.05799937927825199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1835,19 +1835,19 @@
         <v>8903</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5319</v>
+        <v>4961</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14568</v>
+        <v>14739</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04787563095835112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02859964250788372</v>
+        <v>0.0266764076014703</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07833687563347881</v>
+        <v>0.07925308411191921</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1856,19 +1856,19 @@
         <v>26572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18811</v>
+        <v>18882</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36140</v>
+        <v>36833</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04101769008067681</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0290371523270319</v>
+        <v>0.02914587507007457</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05578585123551166</v>
+        <v>0.05685653714320434</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>5373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1780</v>
+        <v>1834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13926</v>
+        <v>13349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01163396375046373</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003853113618209337</v>
+        <v>0.003971229386609195</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03015173583464973</v>
+        <v>0.02890176603239454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2483</v>
+        <v>2656</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004386297457814991</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01335214671142717</v>
+        <v>0.01428169775958135</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1927,19 +1927,19 @@
         <v>6189</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2534</v>
+        <v>2207</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15057</v>
+        <v>13951</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009553387555385137</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003911266463972337</v>
+        <v>0.003406643434760896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02324199873294835</v>
+        <v>0.0215344557576484</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>8304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3615</v>
+        <v>4151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15678</v>
+        <v>15789</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007477879671698464</v>
+        <v>0.007477879671698462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003255117204533307</v>
+        <v>0.003738359052286226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01411884347156113</v>
+        <v>0.01421840958763175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2052,19 +2052,19 @@
         <v>8496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4212</v>
+        <v>4560</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14592</v>
+        <v>14826</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01005109674642962</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004983178266671994</v>
+        <v>0.005394271346229267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01726253123244516</v>
+        <v>0.01753904855742086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2073,19 +2073,19 @@
         <v>16800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10302</v>
+        <v>10023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25107</v>
+        <v>25929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008590053154570383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005267573859865383</v>
+        <v>0.005124955371937977</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01283771574957589</v>
+        <v>0.01325772217899232</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>19796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11550</v>
+        <v>10852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34693</v>
+        <v>34514</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01782689858629632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01040164730723632</v>
+        <v>0.00977250802426304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03124246579350166</v>
+        <v>0.03108165552093608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2123,19 +2123,19 @@
         <v>9447</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4989</v>
+        <v>5441</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15618</v>
+        <v>15973</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.01117611260703822</v>
+        <v>0.01117611260703823</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005902513403891607</v>
+        <v>0.006436304379370488</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01847664144798785</v>
+        <v>0.01889593837996711</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -2144,19 +2144,19 @@
         <v>29243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19142</v>
+        <v>19523</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42966</v>
+        <v>44015</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01495235376882886</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009787866468236612</v>
+        <v>0.009982633393517699</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02196948889104134</v>
+        <v>0.02250546162058145</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>1012266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>990345</v>
+        <v>991847</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1030296</v>
+        <v>1030465</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9115872823294445</v>
+        <v>0.9115872823294444</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8918469298299231</v>
+        <v>0.8931995951698971</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9278246167291824</v>
+        <v>0.927976198420473</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1151</v>
@@ -2194,19 +2194,19 @@
         <v>808491</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>797381</v>
+        <v>796510</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>817361</v>
+        <v>817332</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9564664524019276</v>
+        <v>0.9564664524019277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9433234533390533</v>
+        <v>0.9422929979859636</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9669609570482555</v>
+        <v>0.9669259607011887</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2135</v>
@@ -2215,19 +2215,19 @@
         <v>1820756</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1798138</v>
+        <v>1796102</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1843902</v>
+        <v>1841538</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9309845665220847</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9194193073483246</v>
+        <v>0.9183782545034651</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.942819529139316</v>
+        <v>0.9416108249909493</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>53799</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41629</v>
+        <v>41543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71692</v>
+        <v>69387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04844867356390748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03748825275093351</v>
+        <v>0.03741148674579012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06456149218732454</v>
+        <v>0.06248571801988694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2265,19 +2265,19 @@
         <v>17888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11230</v>
+        <v>11885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26730</v>
+        <v>27631</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02116240741893134</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01328516279785075</v>
+        <v>0.01406078595170215</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03162187810434425</v>
+        <v>0.03268825975462256</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -2286,19 +2286,19 @@
         <v>71688</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56911</v>
+        <v>56828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89682</v>
+        <v>89215</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03665524115160356</v>
+        <v>0.03665524115160355</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02909954575821006</v>
+        <v>0.02905714014500451</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04585590984029235</v>
+        <v>0.04561716573737786</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>16278</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9975</v>
+        <v>10125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25568</v>
+        <v>24911</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01465926584865329</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008983242879119601</v>
+        <v>0.009118104516444365</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02302529227675271</v>
+        <v>0.02243337470323854</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3665</v>
+        <v>3308</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001143930825673238</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.004335342137304399</v>
+        <v>0.0039135623811803</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2357,19 +2357,19 @@
         <v>17245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10844</v>
+        <v>10799</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26144</v>
+        <v>27209</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00881778540291242</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005544847492484633</v>
+        <v>0.005521529135470127</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0133676855283538</v>
+        <v>0.01391251445939446</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7130</v>
+        <v>6211</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002229841411880014</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01340541677118356</v>
+        <v>0.01167873874267246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2482,19 +2482,19 @@
         <v>9874</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5975</v>
+        <v>5718</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16098</v>
+        <v>16317</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01240223085097314</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007504325205599446</v>
+        <v>0.007181911693855631</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02021918680339163</v>
+        <v>0.02049474006364288</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -2503,19 +2503,19 @@
         <v>11060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6454</v>
+        <v>6520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18004</v>
+        <v>17604</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008328432807459193</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004859715809753276</v>
+        <v>0.004909862477073866</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01355706937159795</v>
+        <v>0.01325614948304794</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>4978</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1844</v>
+        <v>1927</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9841</v>
+        <v>10386</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.009360534297795979</v>
+        <v>0.009360534297795981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003466378586145315</v>
+        <v>0.003623385611359164</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01850380272428329</v>
+        <v>0.01952842259800249</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2553,19 +2553,19 @@
         <v>9539</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5361</v>
+        <v>4900</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23545</v>
+        <v>19345</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01198093443130742</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006732959666886196</v>
+        <v>0.006153782391749955</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02957279531293654</v>
+        <v>0.02429782628451617</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2574,19 +2574,19 @@
         <v>14517</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8909</v>
+        <v>8113</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>25796</v>
+        <v>24976</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01093152701321369</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006708481760436465</v>
+        <v>0.006108769272098971</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01942413480012934</v>
+        <v>0.01880716856232969</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>478426</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>462522</v>
+        <v>462613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>491567</v>
+        <v>491315</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8995686424940448</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8696659136573311</v>
+        <v>0.8698363876457356</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9242785553750287</v>
+        <v>0.9238039519525491</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1097</v>
@@ -2624,19 +2624,19 @@
         <v>721925</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>707602</v>
+        <v>707458</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>734124</v>
+        <v>734144</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9067388169718236</v>
+        <v>0.9067388169718237</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8887479782165777</v>
+        <v>0.8885678173833202</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.922060722856425</v>
+        <v>0.9220855825648654</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1548</v>
@@ -2645,19 +2645,19 @@
         <v>1200351</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1180067</v>
+        <v>1179858</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1219494</v>
+        <v>1219533</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9038673340292835</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8885932885290521</v>
+        <v>0.8884355588896229</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9182819869091938</v>
+        <v>0.9183112996558425</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>28874</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19605</v>
+        <v>19513</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42417</v>
+        <v>42342</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05429131257322627</v>
+        <v>0.05429131257322628</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0368621457729353</v>
+        <v>0.03668925315335678</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07975576234387274</v>
+        <v>0.07961386840894885</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>77</v>
@@ -2695,19 +2695,19 @@
         <v>42041</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32445</v>
+        <v>33612</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53714</v>
+        <v>52805</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05280377086106481</v>
+        <v>0.05280377086106482</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04075060124196252</v>
+        <v>0.0422166762917297</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06746476269827122</v>
+        <v>0.06632277545908252</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>108</v>
@@ -2716,19 +2716,19 @@
         <v>70915</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>56479</v>
+        <v>57209</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86815</v>
+        <v>85794</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05339949564656702</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0425286391964761</v>
+        <v>0.04307837570591568</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06537201242934139</v>
+        <v>0.06460335132240265</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>18375</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11556</v>
+        <v>10830</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28657</v>
+        <v>28456</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03454966922305293</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02172918499299246</v>
+        <v>0.02036309974987534</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05388332796338657</v>
+        <v>0.05350567153513615</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2766,19 +2766,19 @@
         <v>12798</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7687</v>
+        <v>7621</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20776</v>
+        <v>20851</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01607424688483105</v>
+        <v>0.01607424688483106</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009654379003885929</v>
+        <v>0.009571566839060618</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02609420432365556</v>
+        <v>0.02618851515552195</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -2787,19 +2787,19 @@
         <v>31173</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22250</v>
+        <v>22316</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43290</v>
+        <v>42603</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02347321050347639</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01675428445904298</v>
+        <v>0.01680390809426979</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03259728393557443</v>
+        <v>0.03207989822002328</v>
       </c>
     </row>
     <row r="33">
@@ -2904,19 +2904,19 @@
         <v>5353</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2431</v>
+        <v>2544</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10261</v>
+        <v>10268</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006644579183823211</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003018182172783184</v>
+        <v>0.003157797962425498</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01273752461854001</v>
+        <v>0.01274668683685293</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2925,19 +2925,19 @@
         <v>5353</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2649</v>
+        <v>2584</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10317</v>
+        <v>10871</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005145200548067839</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002546772788490105</v>
+        <v>0.00248377817235537</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009917004425234145</v>
+        <v>0.01044929429845981</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>12501</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7597</v>
+        <v>8167</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19483</v>
+        <v>18977</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01551827138635304</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009431096747294049</v>
+        <v>0.01013861327214336</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02418484407381727</v>
+        <v>0.02355752283759732</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -2988,19 +2988,19 @@
         <v>12501</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8217</v>
+        <v>7563</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20204</v>
+        <v>18847</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0120165049182524</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007898838189186149</v>
+        <v>0.00726990257597719</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01942034693286588</v>
+        <v>0.01811603499638224</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>216246</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>202785</v>
+        <v>200663</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>225032</v>
+        <v>225428</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.9211509215321119</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8638100411354513</v>
+        <v>0.8547711050342285</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9585792061566749</v>
+        <v>0.9602654678472736</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1015</v>
@@ -3038,19 +3038,19 @@
         <v>749758</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>735713</v>
+        <v>734200</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>761786</v>
+        <v>762164</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.9307086199515069</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9132735623213714</v>
+        <v>0.9113956888497649</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9456391305903273</v>
+        <v>0.9461078953577275</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1113</v>
@@ -3059,19 +3059,19 @@
         <v>966004</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>943941</v>
+        <v>945827</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>980669</v>
+        <v>981452</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.9285518830957066</v>
+        <v>0.9285518830957068</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9073437929752096</v>
+        <v>0.9091574669803075</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9426478740770434</v>
+        <v>0.9434007370838232</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>8126</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2982</v>
+        <v>3156</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19239</v>
+        <v>19312</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03461271877960911</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01270253666654547</v>
+        <v>0.01344336117357037</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08195472703205618</v>
+        <v>0.08226549279843369</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>41</v>
@@ -3109,19 +3109,19 @@
         <v>27884</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19350</v>
+        <v>20130</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39365</v>
+        <v>42354</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03461402128574628</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0240199154829834</v>
+        <v>0.02498822563225037</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04886524480922087</v>
+        <v>0.05257579152823763</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -3130,19 +3130,19 @@
         <v>36010</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25091</v>
+        <v>26457</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50990</v>
+        <v>51866</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03461372736948447</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02411859726772246</v>
+        <v>0.02543129339868856</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04901277364984535</v>
+        <v>0.04985503629090829</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>10385</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4022</v>
+        <v>3577</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>23801</v>
+        <v>25316</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.04423635968827912</v>
+        <v>0.04423635968827914</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01713204474679432</v>
+        <v>0.01523659170775443</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1013846833944559</v>
+        <v>0.1078407079955168</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>14</v>
@@ -3180,19 +3180,19 @@
         <v>10081</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5725</v>
+        <v>5678</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18342</v>
+        <v>19557</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01251450819257057</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007106936811081488</v>
+        <v>0.007047790135558787</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02276906641640989</v>
+        <v>0.02427726621101443</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -3201,19 +3201,19 @@
         <v>20466</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>12331</v>
+        <v>11921</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35334</v>
+        <v>35880</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01967268406848854</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01185322024575711</v>
+        <v>0.01145867405032301</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03396442734030061</v>
+        <v>0.03448928252331326</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>29493</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>20527</v>
+        <v>19562</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>41956</v>
+        <v>42015</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.008769918665396979</v>
+        <v>0.008769918665396977</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006103935575568175</v>
+        <v>0.005816816277018489</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01247612417515169</v>
+        <v>0.01249338534711378</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>53</v>
@@ -3326,19 +3326,19 @@
         <v>36039</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>26598</v>
+        <v>27124</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>46424</v>
+        <v>47315</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0101901969631161</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007520734728913498</v>
+        <v>0.007669651919865589</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01312682252383782</v>
+        <v>0.0133785869524729</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>84</v>
@@ -3347,19 +3347,19 @@
         <v>65531</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>51509</v>
+        <v>52424</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>82645</v>
+        <v>81638</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0094979304598687</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00746559412094878</v>
+        <v>0.00759827265264349</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01197831305636095</v>
+        <v>0.01183237849637302</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>34016</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>22633</v>
+        <v>23161</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>50524</v>
+        <v>49848</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01011502636617838</v>
+        <v>0.01011502636617837</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006730156935416391</v>
+        <v>0.006887188918144583</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0150236452733388</v>
+        <v>0.0148228270704515</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>60</v>
@@ -3397,19 +3397,19 @@
         <v>40816</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30464</v>
+        <v>31018</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>54043</v>
+        <v>53654</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01154115845373924</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008614039544930124</v>
+        <v>0.00877055614951593</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01528118077385772</v>
+        <v>0.01517105038944395</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>91</v>
@@ -3418,19 +3418,19 @@
         <v>74833</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>58271</v>
+        <v>59089</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>94977</v>
+        <v>94527</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0108460387190998</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.008445629649095416</v>
+        <v>0.008564141933998541</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01376579414949558</v>
+        <v>0.01370043652504151</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>3121971</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3091275</v>
+        <v>3087986</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3153949</v>
+        <v>3153892</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.9283455457032868</v>
+        <v>0.9283455457032866</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9192177889152638</v>
+        <v>0.9182397635424676</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9378543730363816</v>
+        <v>0.9378374523840323</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4746</v>
@@ -3468,19 +3468,19 @@
         <v>3324546</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3298553</v>
+        <v>3299215</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3349897</v>
+        <v>3349988</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9400437239419505</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.932693770335672</v>
+        <v>0.9328809824053637</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9472118999773558</v>
+        <v>0.9472374339187954</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7705</v>
@@ -3489,19 +3489,19 @@
         <v>6446518</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6401932</v>
+        <v>6408358</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6486978</v>
+        <v>6487215</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.9343418435733989</v>
+        <v>0.9343418435733988</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9278797296995833</v>
+        <v>0.9288110163347199</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9402060520258253</v>
+        <v>0.9402404133163141</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>120431</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>101778</v>
+        <v>101112</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>145883</v>
+        <v>145194</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03581114611753732</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0302644766687822</v>
+        <v>0.03006663561114494</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04337944266043478</v>
+        <v>0.04317470502387082</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>169</v>
@@ -3539,19 +3539,19 @@
         <v>102723</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>88599</v>
+        <v>85318</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>122102</v>
+        <v>120415</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.02904589119326792</v>
+        <v>0.02904589119326791</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02505225050191186</v>
+        <v>0.02412426691433673</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03452547509538843</v>
+        <v>0.03404843050477209</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>302</v>
@@ -3560,19 +3560,19 @@
         <v>223154</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>197472</v>
+        <v>196852</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>251791</v>
+        <v>253079</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03234338533756512</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02862104640498603</v>
+        <v>0.02853128754193719</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03649388343042213</v>
+        <v>0.03668059555035572</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>57030</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>41577</v>
+        <v>42419</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>74475</v>
+        <v>75525</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01695836314760068</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01236325972391033</v>
+        <v>0.01261357967432613</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02214575932930003</v>
+        <v>0.02245800162247051</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>47</v>
@@ -3610,19 +3610,19 @@
         <v>32462</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>23211</v>
+        <v>23509</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>43033</v>
+        <v>44708</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.009179029447926467</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006563107521970558</v>
+        <v>0.006647315182260171</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01216780625040216</v>
+        <v>0.01264147280077303</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>107</v>
@@ -3631,19 +3631,19 @@
         <v>89492</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>72637</v>
+        <v>73523</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>111742</v>
+        <v>111193</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01297080191006763</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01052780279799596</v>
+        <v>0.01065624411490295</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01619566032520768</v>
+        <v>0.01611599021045453</v>
       </c>
     </row>
     <row r="45">
